--- a/30_OQ/39_SamplesData/3_Final Melting/Доплавка LZM.xlsx
+++ b/30_OQ/39_SamplesData/3_Final Melting/Доплавка LZM.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FFC9F3-E325-433F-A070-00C224AE2068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1200" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
   <si>
     <t>OQ_qfd_02_6_1</t>
   </si>
@@ -222,12 +223,15 @@
   <si>
     <t>5,58/5,65/5,46</t>
   </si>
+  <si>
+    <t>Оценка качества формирования по шкале 1-10, 1 - несоответствующая продукция, 10 - отлично)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +275,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -292,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -478,7 +489,36 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -486,68 +526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -576,6 +554,58 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -588,9 +618,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -613,10 +642,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,12 +655,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,10 +681,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,30 +705,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,11 +1032,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,362 +1044,372 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>4.92</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>3.83</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13">
+        <v>6.42</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5.41</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>5.49</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="44">
         <v>3</v>
       </c>
-      <c r="B6" s="16">
-        <v>6.42</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="13">
-        <v>5.41</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15">
-        <v>5.49</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="10">
+        <v>5.67</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <v>5.48</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B11" s="13">
-        <v>5.67</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+        <v>6.2</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15">
+        <v>5.45</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="44">
+        <v>10</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18">
+        <v>5.46</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="44">
+        <v>10</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20">
+        <v>5.09</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="44">
+        <v>9</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="44">
         <v>8</v>
       </c>
-      <c r="B12" s="15">
-        <v>5.48</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12">
+        <v>5.78</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="44">
         <v>9</v>
       </c>
-      <c r="B14" s="16">
-        <v>6.2</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="13">
-        <v>4.71</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="6" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="20">
-        <v>5.45</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="39"/>
-    </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="23">
+    </row>
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13">
+        <v>5.62</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>5.84</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12">
         <v>5.46</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="25">
-        <v>5.09</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-    </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="16">
-        <v>5.6</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>16</v>
+      <c r="C22" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="15">
-        <v>5.78</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="6" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="16">
-        <v>5.62</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="13">
-        <v>5.84</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="15">
-        <v>5.46</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="6" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="C23" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B24" s="10">
         <v>6.81</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="C24" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B25" s="12">
         <v>6.12</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" s="6" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C25" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="5" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D18:E20"/>
+    <mergeCell ref="F14:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1365,11 +1417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,338 +1429,379 @@
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>6.18</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>6.19</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="12">
         <v>5.71</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="13">
+        <v>5.92</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="16">
+        <v>28</v>
+      </c>
+      <c r="B6" s="10">
+        <v>7.19</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="12">
+        <v>5.65</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="13">
+        <v>6.69</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="10">
+        <v>6.19</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="12">
+        <v>5.61</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="13">
+        <v>5.54</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="10">
+        <v>5.75</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="12">
+        <v>6.19</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="25">
+        <v>5.93</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="26">
+        <v>5.66</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="28">
+        <v>5.15</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="15">
+        <v>5.93</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="45">
+        <v>10</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="18">
+        <v>5.22</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="45">
+        <v>10</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="20">
         <v>5.92</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="13">
-        <v>7.19</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="15">
-        <v>5.65</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="16">
-        <v>6.69</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="13">
-        <v>6.19</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="15">
-        <v>5.61</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="16">
-        <v>5.54</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="13">
+      <c r="C19" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="45">
+        <v>9.5</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="15">
+        <v>6.18</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="45">
+        <v>10</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="18">
+        <v>5.21</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="45">
+        <v>10</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="45">
+        <v>10</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="13">
+        <v>5.58</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="10">
         <v>5.75</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="15">
-        <v>6.19</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="30">
-        <v>5.93</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="31">
-        <v>5.66</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="33">
-        <v>5.15</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="20">
-        <v>5.93</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="39"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="23">
-        <v>5.22</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="25">
-        <v>5.92</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-    </row>
-    <row r="25" spans="1:5" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="20">
-        <v>6.18</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="39"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="23">
-        <v>5.21</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
-    </row>
-    <row r="29" spans="1:5" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="16">
-        <v>5.58</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="13">
-        <v>5.75</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="C24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B25" s="12">
         <v>6.03</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>51</v>
+      <c r="C25" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="45">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D26:E28"/>
-    <mergeCell ref="D22:E24"/>
+    <mergeCell ref="F20:G22"/>
+    <mergeCell ref="F17:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
